--- a/biology/Botanique/Carex_des_bourbiers/Carex_des_bourbiers.xlsx
+++ b/biology/Botanique/Carex_des_bourbiers/Carex_des_bourbiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carex limosa est une espèce de plantes du genre Carex et de la famille des Cyperaceae. Cette espèce est appelée « Laîche des bourbiers », « Laîche des tourbières » ou encore « Laîche des vases ».
 C'est une plante aquatique ou de rivage. On la retrouve le plus souvent dans les marais ou les tourbières de montagne. Elle se répartit à travers l'Amérique du Nord et l'Eurasie. Le carex limosa a un grand rhizome et des racines velues. La tige mesure en général à peu près 50 centimètres et possède quelques feuilles à sa base.. Le bout de la tige est souvent occupé par un épillet staminé, et au-dessous de celui-ci un ou plusieurs épillets pistillés, et quelques épillets peuvent avoir les pièces masculines et femelles à la fois.
-Carex limosa est une espèce protégée sur l'ensemble du territoire français par arrêté du 20 janvier 1982[1].
+Carex limosa est une espèce protégée sur l'ensemble du territoire français par arrêté du 20 janvier 1982.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trasus limosus (L.) Gray
 Facolos limosa (L.) Raf.
